--- a/獎項清單.xlsx
+++ b/獎項清單.xlsx
@@ -433,7 +433,7 @@
         <v>第一分區</v>
       </c>
       <c r="C2" t="str">
-        <v>南區</v>
+        <v>南區社</v>
       </c>
       <c r="D2" t="str">
         <v>Queenie</v>
@@ -456,7 +456,7 @@
         <v>第一分區</v>
       </c>
       <c r="C3" t="str">
-        <v>逸仙</v>
+        <v>逸仙社</v>
       </c>
       <c r="D3" t="str">
         <v>Susan</v>
@@ -479,7 +479,7 @@
         <v>第一分區</v>
       </c>
       <c r="C4" t="str">
-        <v>逸天</v>
+        <v>逸天社</v>
       </c>
       <c r="D4" t="str">
         <v>Jim</v>
@@ -502,7 +502,7 @@
         <v>第一分區</v>
       </c>
       <c r="C5" t="str">
-        <v>雲聯網</v>
+        <v>雲聯網社</v>
       </c>
       <c r="D5" t="str">
         <v>Jennifer</v>
@@ -525,7 +525,7 @@
         <v>第一分區</v>
       </c>
       <c r="C6" t="str">
-        <v>逸澤</v>
+        <v>逸澤社</v>
       </c>
       <c r="D6" t="str">
         <v>Andy</v>
@@ -548,7 +548,7 @@
         <v>第一分區</v>
       </c>
       <c r="C7" t="str">
-        <v>黃埔</v>
+        <v>黃埔社</v>
       </c>
       <c r="D7" t="str">
         <v>Alex</v>
@@ -571,7 +571,7 @@
         <v>第一分區</v>
       </c>
       <c r="C8" t="str">
-        <v>逸新</v>
+        <v>逸新社</v>
       </c>
       <c r="D8" t="str">
         <v>Sandy</v>
@@ -594,7 +594,7 @@
         <v>第一分區</v>
       </c>
       <c r="C9" t="str">
-        <v>蘭亭鐵馬</v>
+        <v>蘭亭鐵馬社</v>
       </c>
       <c r="D9" t="str">
         <v>Wine</v>
@@ -617,7 +617,7 @@
         <v>第一分區</v>
       </c>
       <c r="C10" t="str">
-        <v>銀河</v>
+        <v>銀河社</v>
       </c>
       <c r="D10" t="str">
         <v/>
@@ -640,7 +640,7 @@
         <v>第四分區</v>
       </c>
       <c r="C11" t="str">
-        <v>南欣</v>
+        <v>南欣社</v>
       </c>
       <c r="D11" t="str">
         <v>William</v>
@@ -663,7 +663,7 @@
         <v>第四分區</v>
       </c>
       <c r="C12" t="str">
-        <v>松山</v>
+        <v>松山社</v>
       </c>
       <c r="D12" t="str">
         <v>MB</v>
@@ -686,7 +686,7 @@
         <v>第四分區</v>
       </c>
       <c r="C13" t="str">
-        <v>民生</v>
+        <v>民生社</v>
       </c>
       <c r="D13" t="str">
         <v>Dawson</v>
@@ -709,7 +709,7 @@
         <v>第四分區</v>
       </c>
       <c r="C14" t="str">
-        <v>松青</v>
+        <v>松青社</v>
       </c>
       <c r="D14" t="str">
         <v>Tony</v>
@@ -732,7 +732,7 @@
         <v>第四分區</v>
       </c>
       <c r="C15" t="str">
-        <v>政愛</v>
+        <v>政愛社</v>
       </c>
       <c r="D15" t="str">
         <v>Alex</v>
@@ -755,7 +755,7 @@
         <v>第四分區</v>
       </c>
       <c r="C16" t="str">
-        <v>添愛</v>
+        <v>添愛社</v>
       </c>
       <c r="D16" t="str">
         <v>Jerry</v>
@@ -778,7 +778,7 @@
         <v>第四分區</v>
       </c>
       <c r="C17" t="str">
-        <v>泰愛</v>
+        <v>泰愛社</v>
       </c>
       <c r="D17" t="str">
         <v>Lian</v>
@@ -801,7 +801,7 @@
         <v>第四分區</v>
       </c>
       <c r="C18" t="str">
-        <v>文化</v>
+        <v>文化社</v>
       </c>
       <c r="D18" t="str">
         <v>Sky</v>
@@ -824,7 +824,7 @@
         <v>第五分區</v>
       </c>
       <c r="C19" t="str">
-        <v>府門</v>
+        <v>府門社</v>
       </c>
       <c r="D19" t="str">
         <v>Card</v>
@@ -847,7 +847,7 @@
         <v>第五分區</v>
       </c>
       <c r="C20" t="str">
-        <v>南陽</v>
+        <v>南陽社</v>
       </c>
       <c r="D20" t="str">
         <v>Michael</v>
@@ -870,7 +870,7 @@
         <v>第五分區</v>
       </c>
       <c r="C21" t="str">
-        <v>明星</v>
+        <v>明星社</v>
       </c>
       <c r="D21" t="str">
         <v>Mandy</v>
@@ -893,7 +893,7 @@
         <v>第五分區</v>
       </c>
       <c r="C22" t="str">
-        <v>風雲</v>
+        <v>風雲社</v>
       </c>
       <c r="D22" t="str">
         <v>Reis</v>
